--- a/medicine/Mort/Cimetière_de_La_Garenne-Colombes/Cimetière_de_La_Garenne-Colombes.xlsx
+++ b/medicine/Mort/Cimetière_de_La_Garenne-Colombes/Cimetière_de_La_Garenne-Colombes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_La_Garenne-Colombes</t>
+          <t>Cimetière_de_La_Garenne-Colombes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de La Garenne-Colombes est un cimetière communal se trouvant 96 rue Jules-Ferry à La Garenne-Colombes dans les Hauts-de-Seine[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de La Garenne-Colombes est un cimetière communal se trouvant 96 rue Jules-Ferry à La Garenne-Colombes dans les Hauts-de-Seine. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_La_Garenne-Colombes</t>
+          <t>Cimetière_de_La_Garenne-Colombes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière est localisé à cheval sur deux communes : La Garenne-Colombes qui accueille la partie est, et Nanterre où se situe la partie ouest et le monument aux morts.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_La_Garenne-Colombes</t>
+          <t>Cimetière_de_La_Garenne-Colombes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -550,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_La_Garenne-Colombes</t>
+          <t>Cimetière_de_La_Garenne-Colombes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,13 +584,15 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le champion cycliste Lucien Choury (1898-1987).
 Gilbert Gil (1913-1988), acteur.
-Le comédien Alain Philippe (1949-1980)[2].
+Le comédien Alain Philippe (1949-1980).
 Pierre Probst (1913-2007), illustrateur et écrivain, créateur du personnage de Caroline.
-Outre le carré militaire et la statue du monument aux morts, on y trouve aussi un monument à la mémoire des Suédois inhumés en France[3], une stèle en hommage aux combattants morts en Indochine et en Afrique du Nord et un monument en mémoire des Garennois déportés.
+Outre le carré militaire et la statue du monument aux morts, on y trouve aussi un monument à la mémoire des Suédois inhumés en France, une stèle en hommage aux combattants morts en Indochine et en Afrique du Nord et un monument en mémoire des Garennois déportés.
 </t>
         </is>
       </c>
